--- a/openpyxl test/my work test/b.xlsx
+++ b/openpyxl test/my work test/b.xlsx
@@ -12,27 +12,27 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$8</definedName>
   </definedNames>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
     <t>vb</t>
   </si>
   <si>
-    <t>d</t>
+    <t>f</t>
   </si>
   <si>
     <t>cga</t>
@@ -44,6 +44,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>fds</t>
+  </si>
+  <si>
     <t>fas</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>dfa</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
   <si>
     <t>adf</t>
@@ -438,27 +444,33 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="n">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -470,47 +482,59 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -518,16 +542,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -535,36 +562,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
